--- a/ExcelConfig/招募表.xlsx
+++ b/ExcelConfig/招募表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
     <t>HeroConfig</t>
   </si>
   <si>
-    <t>HeroConfig.jason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招募表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,14 +112,18 @@
   </si>
   <si>
     <t>recruit_des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroConfig.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +206,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +292,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +327,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,16 +503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -524,126 +539,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -659,12 +674,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/招募表.xlsx
+++ b/ExcelConfig/招募表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 条件类型
+1 通关XX地图
+2 获得XX物品
+3 达成XX成就</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>HeroConfig</t>
   </si>
@@ -71,22 +98,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>条件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关XX地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得XX物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达成XX成就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,19 +114,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>recruit_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruit_des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前是牛逼的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>recruit_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recruit_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recruit_des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroConfig.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +179,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,18 +528,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -539,22 +561,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="10" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -562,25 +585,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -606,7 +629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -626,39 +649,30 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -670,6 +684,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -679,7 +694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/招募表.xlsx
+++ b/ExcelConfig/招募表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
@@ -15,35 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 条件类型
-1 通关XX地图
-2 获得XX物品
-3 达成XX成就</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>HeroConfig</t>
   </si>
@@ -98,6 +71,22 @@
     <t>String</t>
   </si>
   <si>
+    <t>条件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关XX地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得XX物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成XX成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +103,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>recruit_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>recruit_para</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,14 +116,6 @@
   </si>
   <si>
     <t>HeroConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前是牛逼的东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recruit_condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +164,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -528,18 +506,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -561,23 +539,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,7 +606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,30 +626,39 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +670,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -694,7 +679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/招募表.xlsx
+++ b/ExcelConfig/招募表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -540,10 +540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -633,11 +633,41 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
@@ -646,6 +676,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>2</v>
       </c>
@@ -654,11 +699,43 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/招募表.xlsx
+++ b/ExcelConfig/招募表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="45" yWindow="-240" windowWidth="18885" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>HeroConfig</t>
   </si>
@@ -116,6 +116,74 @@
   </si>
   <si>
     <t>HeroConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混世小妖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄袍怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红孩儿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒元神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>来历神秘的妖猴，追随西游一行人的脚步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【白骨洞】解锁购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【云栈洞】解锁购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【黄风岭】解锁购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【火云洞】解锁购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【莲花洞】解锁购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【波月洞】解锁购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得【招募券】妖：九尾狐即可购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,13 +233,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +288,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -218,7 +311,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -260,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,14 +603,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,21 +633,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -580,7 +674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -606,7 +700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,41 +726,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -675,21 +784,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -698,21 +816,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -721,26 +848,139 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
+        <v>252</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>257</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>800</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>260</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>800</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>266</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>800</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>263</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>800</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>171</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:H2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
@@ -756,7 +996,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
